--- a/DOM_Banner/output/dept_banner/Junaid Arshad_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Junaid Arshad_2023.xlsx
@@ -1059,7 +1059,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3048582358", "https://openalex.org/W1984418710", "https://openalex.org/W2471989939", "https://openalex.org/W4254740740", "https://openalex.org/W1481820868", "https://openalex.org/W4302319510", "https://openalex.org/W2600735778", "https://openalex.org/W2091003848", "https://openalex.org/W2462067466", "https://openalex.org/W2068859133")</t>
+          <t>c("https://openalex.org/W1976837208", "https://openalex.org/W2374639958", "https://openalex.org/W4385644928", "https://openalex.org/W3007979253", "https://openalex.org/W2371775975", "https://openalex.org/W2376040085", "https://openalex.org/W2168671040", "https://openalex.org/W3000564033", "https://openalex.org/W2023453068", "https://openalex.org/W78319162")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Junaid Arshad_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Junaid Arshad_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Radiology, Southern Arizona VA, Tucson, AZ 85723, USA; Department of Medicine, Division of Hematology and Oncology, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology and Oncology, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384298390</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Friend or Foe? Locoregional Therapies and Immunotherapies in the Current Hepatocellular Treatment Landscape</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms241411434</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37511193</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms241411434</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Avera Cancer Institute, Sioux Falls, SD; Avera Cancer Institute, Sioux Falls, SD; Avera Cancer Institute, Sioux Falls, SD; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT; University of Oklahoma Health Sciences Center, Oklahoma City, OK; University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; Avera Cancer Institute, Sioux Falls, SD; Stephenson Cancer Center, University of Oklahoma Health Sciences, Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379283613</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Pan tumor outcomes to immune checkpoint inhibitors in patients of Native American origin in the United States: The multicenter POINT-US study.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ; University of Arizona College of Medicine - Tucson, Tucson, AZ; The University of Arizona Cancer Center, Tucson, AZ; University of Arizona Department of Neuroscience, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; The University of Arizona Cancer Center, Tuscon, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379283850</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Outcomes for immuno-chemotherapy based treatment in patients with poorly differentiated extrapulmonary neuroendocrine carcinoma.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Surgical Oncology, Department of Surgery, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4391182888</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Seminars in Interventional Radiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
